--- a/1 NHI impact/output/sfig_5_did_facility.xlsx
+++ b/1 NHI impact/output/sfig_5_did_facility.xlsx
@@ -558,7 +558,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1138,7 +1138,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2066,7 +2066,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -2994,7 +2994,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -3922,7 +3922,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -4913,7 +4913,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5339,7 +5339,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -5904,7 +5904,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
@@ -6895,7 +6895,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -7886,7 +7886,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8390,7 +8390,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8546,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -8814,7 +8814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9084,7 +9084,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9162,7 +9162,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -9742,7 +9742,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10402,7 +10402,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
@@ -10670,7 +10670,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11174,7 +11174,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11498,7 +11498,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
@@ -11598,7 +11598,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11946,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12102,7 +12102,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12180,7 +12180,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12399,7 +12399,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
@@ -12589,7 +12589,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12769,7 +12769,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -12937,7 +12937,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13015,7 +13015,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13327,7 +13327,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13480,7 +13480,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -13580,7 +13580,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13670,7 +13670,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13760,7 +13760,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13850,7 +13850,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -13928,7 +13928,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14006,7 +14006,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14240,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14318,7 +14318,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X169" t="inlineStr">
@@ -14571,7 +14571,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14751,7 +14751,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14841,7 +14841,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14919,7 +14919,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -14997,7 +14997,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15075,7 +15075,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15231,7 +15231,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15309,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15372,7 +15372,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15462,7 +15462,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X181" t="inlineStr">
@@ -15562,7 +15562,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15742,7 +15742,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -15832,7 +15832,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46522,7 +46522,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46600,7 +46600,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46678,7 +46678,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46756,7 +46756,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46834,7 +46834,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -46912,7 +46912,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47002,7 +47002,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X560" t="inlineStr">
@@ -47102,7 +47102,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47192,7 +47192,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47282,7 +47282,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47372,7 +47372,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47450,7 +47450,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47528,7 +47528,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47606,7 +47606,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47684,7 +47684,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47762,7 +47762,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47840,7 +47840,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -47930,7 +47930,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X571" t="inlineStr">
@@ -48030,7 +48030,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48120,7 +48120,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48210,7 +48210,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48300,7 +48300,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48378,7 +48378,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48456,7 +48456,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48534,7 +48534,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48612,7 +48612,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48690,7 +48690,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48768,7 +48768,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -48858,7 +48858,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X582" t="inlineStr">
@@ -48958,7 +48958,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49048,7 +49048,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49138,7 +49138,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49228,7 +49228,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49306,7 +49306,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49384,7 +49384,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49462,7 +49462,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49540,7 +49540,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49618,7 +49618,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49696,7 +49696,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49786,7 +49786,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X593" t="inlineStr">
@@ -49886,7 +49886,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -49976,7 +49976,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50066,7 +50066,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50156,7 +50156,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50234,7 +50234,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50312,7 +50312,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50390,7 +50390,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50468,7 +50468,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50546,7 +50546,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50624,7 +50624,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50687,7 +50687,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50777,7 +50777,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X605" t="inlineStr">
@@ -50877,7 +50877,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -50967,7 +50967,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51057,7 +51057,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51147,7 +51147,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51225,7 +51225,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51303,7 +51303,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51381,7 +51381,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51459,7 +51459,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51537,7 +51537,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51615,7 +51615,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51678,7 +51678,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51768,7 +51768,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X617" t="inlineStr">
@@ -51868,7 +51868,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -51958,7 +51958,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52048,7 +52048,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52138,7 +52138,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52216,7 +52216,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52294,7 +52294,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52372,7 +52372,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52450,7 +52450,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52528,7 +52528,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52606,7 +52606,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52669,7 +52669,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52759,7 +52759,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X629" t="inlineStr">
@@ -52859,7 +52859,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -52949,7 +52949,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53039,7 +53039,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53129,7 +53129,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53207,7 +53207,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53285,7 +53285,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53363,7 +53363,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53441,7 +53441,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53519,7 +53519,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53597,7 +53597,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53660,7 +53660,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53750,7 +53750,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X641" t="inlineStr">
@@ -53850,7 +53850,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -53940,7 +53940,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54030,7 +54030,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54120,7 +54120,7 @@
           <t>Outpatient
 visits
 per 1000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54198,7 +54198,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54276,7 +54276,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54354,7 +54354,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54432,7 +54432,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54510,7 +54510,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54588,7 +54588,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54678,7 +54678,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X652" t="inlineStr">
@@ -54778,7 +54778,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54868,7 +54868,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -54958,7 +54958,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55048,7 +55048,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55126,7 +55126,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55204,7 +55204,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55282,7 +55282,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55360,7 +55360,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55438,7 +55438,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55516,7 +55516,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55606,7 +55606,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X663" t="inlineStr">
@@ -55706,7 +55706,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55796,7 +55796,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55886,7 +55886,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -55976,7 +55976,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56054,7 +56054,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56132,7 +56132,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56210,7 +56210,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56288,7 +56288,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56366,7 +56366,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56444,7 +56444,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56534,7 +56534,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X674" t="inlineStr">
@@ -56634,7 +56634,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56724,7 +56724,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56814,7 +56814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56904,7 +56904,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -56982,7 +56982,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57060,7 +57060,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57138,7 +57138,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57216,7 +57216,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57294,7 +57294,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57372,7 +57372,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57462,7 +57462,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X685" t="inlineStr">
@@ -57562,7 +57562,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57652,7 +57652,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57742,7 +57742,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57832,7 +57832,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57910,7 +57910,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -57988,7 +57988,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58066,7 +58066,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58144,7 +58144,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58222,7 +58222,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58300,7 +58300,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58363,7 +58363,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58453,7 +58453,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X697" t="inlineStr">
@@ -58553,7 +58553,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58643,7 +58643,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58733,7 +58733,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58823,7 +58823,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58901,7 +58901,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -58979,7 +58979,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59057,7 +59057,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59135,7 +59135,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59213,7 +59213,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59291,7 +59291,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59354,7 +59354,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59444,7 +59444,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X709" t="inlineStr">
@@ -59544,7 +59544,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59634,7 +59634,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59724,7 +59724,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59814,7 +59814,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59892,7 +59892,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -59970,7 +59970,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60048,7 +60048,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60126,7 +60126,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60204,7 +60204,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60282,7 +60282,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60345,7 +60345,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60435,7 +60435,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X721" t="inlineStr">
@@ -60535,7 +60535,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60625,7 +60625,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60715,7 +60715,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60805,7 +60805,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60883,7 +60883,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -60961,7 +60961,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61039,7 +61039,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61117,7 +61117,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61195,7 +61195,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61273,7 +61273,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61336,7 +61336,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61426,7 +61426,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
       <c r="X733" t="inlineStr">
@@ -61526,7 +61526,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61616,7 +61616,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61706,7 +61706,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -61796,7 +61796,7 @@
           <t>Inpatient
 admissions
 per 100 000,
-aged &gt;= 5</t>
+aged ≥ 5</t>
         </is>
       </c>
     </row>
